--- a/TemperatureData/St.Albans-N/0501_2024.xlsx
+++ b/TemperatureData/St.Albans-N/0501_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice.sharepoint.com/sites/TeamMosher/Shared Documents/General/People/Scott, Reed/VTADS/HoboLoggerData/St.Albans-N/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepos\VTADS\TemperatureData\St.Albans-N\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACA38E79-CCD0-4479-965C-BDAF94E8ADFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189B6271-337B-4E08-B84B-BE148D222B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{187D9258-DA0F-478C-A5A3-C2733E8385EB}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{187D9258-DA0F-478C-A5A3-C2733E8385EB}"/>
   </bookViews>
   <sheets>
     <sheet name="0501_2024" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Plot Title: St. Albans - N</t>
   </si>
@@ -50,9 +50,6 @@
     <t>End Of File (LGR S/N: 21422119)</t>
   </si>
   <si>
-    <t>Logged</t>
-  </si>
-  <si>
     <t>#St. Albans -N</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t># Logger was collected on 08/05/2024 at 1:47</t>
+  </si>
+  <si>
+    <t>#Deleted all data after retrieval date/time</t>
   </si>
 </sst>
 </file>
@@ -927,9 +927,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B097F98-EE1C-42A8-92B6-7A65C1D86358}">
-  <dimension ref="A1:H5686"/>
+  <dimension ref="A1:H5674"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5645" workbookViewId="0">
+      <selection activeCell="B5681" sqref="B5681"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -80375,174 +80377,6 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5675" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5675">
-        <v>5673</v>
-      </c>
-      <c r="B5675" s="1">
-        <v>45509.583333333336</v>
-      </c>
-      <c r="C5675">
-        <v>80.382000000000005</v>
-      </c>
-      <c r="D5675">
-        <v>3456</v>
-      </c>
-    </row>
-    <row r="5676" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5676">
-        <v>5674</v>
-      </c>
-      <c r="B5676" s="1">
-        <v>45509.59375</v>
-      </c>
-      <c r="C5676">
-        <v>87.733000000000004</v>
-      </c>
-      <c r="D5676">
-        <v>3072</v>
-      </c>
-    </row>
-    <row r="5677" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5677">
-        <v>5675</v>
-      </c>
-      <c r="B5677" s="1">
-        <v>45509.604166666664</v>
-      </c>
-      <c r="C5677">
-        <v>81.441999999999993</v>
-      </c>
-      <c r="D5677">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5678" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5678">
-        <v>5676</v>
-      </c>
-      <c r="B5678" s="1">
-        <v>45509.614583333336</v>
-      </c>
-      <c r="C5678">
-        <v>75.831999999999994</v>
-      </c>
-      <c r="D5678">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5679" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5679">
-        <v>5677</v>
-      </c>
-      <c r="B5679" s="1">
-        <v>45509.625</v>
-      </c>
-      <c r="C5679">
-        <v>74.619</v>
-      </c>
-      <c r="D5679">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5680" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5680">
-        <v>5678</v>
-      </c>
-      <c r="B5680" s="1">
-        <v>45509.635416666664</v>
-      </c>
-      <c r="C5680">
-        <v>73.753</v>
-      </c>
-      <c r="D5680">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5681" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5681">
-        <v>5679</v>
-      </c>
-      <c r="B5681" s="1">
-        <v>45509.645833333336</v>
-      </c>
-      <c r="C5681">
-        <v>73.061999999999998</v>
-      </c>
-      <c r="D5681">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5682" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5682">
-        <v>5680</v>
-      </c>
-      <c r="B5682" s="1">
-        <v>45509.65625</v>
-      </c>
-      <c r="C5682">
-        <v>72.891000000000005</v>
-      </c>
-      <c r="D5682">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5683" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5683">
-        <v>5681</v>
-      </c>
-      <c r="B5683" s="1">
-        <v>45509.666666666664</v>
-      </c>
-      <c r="C5683">
-        <v>72.372</v>
-      </c>
-      <c r="D5683">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5684" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5684">
-        <v>5682</v>
-      </c>
-      <c r="B5684" s="1">
-        <v>45509.677083333336</v>
-      </c>
-      <c r="C5684">
-        <v>71.855999999999995</v>
-      </c>
-      <c r="D5684">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5685" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5685">
-        <v>5683</v>
-      </c>
-      <c r="B5685" s="1">
-        <v>45509.680347222224</v>
-      </c>
-      <c r="E5685" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5685" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5686" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5686">
-        <v>5684</v>
-      </c>
-      <c r="B5686" s="1">
-        <v>45509.680983796294</v>
-      </c>
-      <c r="G5686" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5686" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -80550,36 +80384,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF74ED9C-C316-43CE-857B-6F2F66911DDA}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -80816,15 +80655,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="94106a43-364c-4431-a764-9e3dd608a139" xsi:nil="true"/>
@@ -80835,14 +80665,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3F03DCA-7BB0-4E87-8C39-E8ECCA0B5C21}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3F03DCA-7BB0-4E87-8C39-E8ECCA0B5C21}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{736D5340-DE51-4286-A874-314557CB59F4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEDD2CB4-3EAC-45F7-98AB-7A3168EB086A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEDD2CB4-3EAC-45F7-98AB-7A3168EB086A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{736D5340-DE51-4286-A874-314557CB59F4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>